--- a/medicine/Mort/Cimetière_de_Vaugirard/Cimetière_de_Vaugirard.xlsx
+++ b/medicine/Mort/Cimetière_de_Vaugirard/Cimetière_de_Vaugirard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Vaugirard</t>
+          <t>Cimetière_de_Vaugirard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Vaugirard est un cimetière parisien situé 320 rue Lecourbe (15e arrondissement de Paris), ouvert en 1787[1], ce qui en fait l'un des plus anciens cimetières parisiens en activité.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Vaugirard est un cimetière parisien situé 320 rue Lecourbe (15e arrondissement de Paris), ouvert en 1787, ce qui en fait l'un des plus anciens cimetières parisiens en activité.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Vaugirard</t>
+          <t>Cimetière_de_Vaugirard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière occupe une grande parcelle à l'ouest de la rue Lecourbe. Il a une superficie d'un hectare et demi et abrite environ 2500 tombes. On y trouve 95 arbres de 17 essences différentes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière occupe une grande parcelle à l'ouest de la rue Lecourbe. Il a une superficie d'un hectare et demi et abrite environ 2500 tombes. On y trouve 95 arbres de 17 essences différentes.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Vaugirard</t>
+          <t>Cimetière_de_Vaugirard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Vaugirard est le troisième du nom. Il servait de cimetière aux habitants de Grenelle, avant que ceux-ci n'aient leur propre cimetière.
 Il a été rattaché à la ville de Paris en 1860, lors du rattachement de la commune de Vaugirard.
-Il possède un grand carré militaire, créé en 1882 pour les pensionnaires des Invalides[2], aux côtés de nombreux morts des deux guerres mondiales.
+Il possède un grand carré militaire, créé en 1882 pour les pensionnaires des Invalides, aux côtés de nombreux morts des deux guerres mondiales.
 Y ont été transférés en 1854, dans une tombe située tout au fond du cimetière, les restes des personnes qui avaient été inhumées dans l'ancienne église Saint-Lambert, démolie après la construction de la nouvelle église.
 			Caveau contenant les restes découverts lors de la démolition de l'ancienne église Saint-Lambert.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Vaugirard</t>
+          <t>Cimetière_de_Vaugirard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
